--- a/casos_por_estado.xlsx
+++ b/casos_por_estado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,7 +527,7 @@
         <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>398</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="16">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
-        <v>5.31</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +751,7 @@
         <v>116</v>
       </c>
       <c r="D20" t="n">
-        <v>7.08</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="21">
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="25">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" t="n">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="27">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/casos_por_estado.xlsx
+++ b/casos_por_estado.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>2375</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>40.91</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>1416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>522</v>
       </c>
       <c r="D5" t="n">
-        <v>1.22</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>519</v>
       </c>
       <c r="D6" t="n">
-        <v>4.65</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>762</v>
       </c>
       <c r="D7" t="n">
-        <v>3.3</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>398</v>
+        <v>1381</v>
       </c>
       <c r="D8" t="n">
-        <v>24.33</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>452</v>
       </c>
       <c r="D9" t="n">
-        <v>1.28</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>854</v>
       </c>
       <c r="D10" t="n">
-        <v>3.67</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="D12" t="n">
-        <v>4.4</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="D13" t="n">
-        <v>1.77</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="D15" t="n">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="D17" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="D18" t="n">
-        <v>5.26</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="D19" t="n">
-        <v>2.75</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>116</v>
+        <v>584</v>
       </c>
       <c r="D20" t="n">
-        <v>7.09</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D21" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="D22" t="n">
-        <v>2.38</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="D25" t="n">
-        <v>5.13</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="26">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="D26" t="n">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>331</v>
       </c>
       <c r="D27" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="28">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D28" t="n">
         <v>0.98</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1636</v>
+        <v>5805</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/casos_por_estado.xlsx
+++ b/casos_por_estado.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2375</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>40.91</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1416</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>24.39</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>5.15</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>522</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>8.99</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>519</v>
+        <v>253</v>
       </c>
       <c r="D6" t="n">
-        <v>8.94</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>762</v>
+        <v>168</v>
       </c>
       <c r="D7" t="n">
-        <v>13.13</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1381</v>
+        <v>1118</v>
       </c>
       <c r="D8" t="n">
-        <v>23.79</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>452</v>
+        <v>170</v>
       </c>
       <c r="D9" t="n">
-        <v>7.79</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>854</v>
+        <v>270</v>
       </c>
       <c r="D10" t="n">
-        <v>14.71</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="11">

--- a/casos_por_estado.xlsx
+++ b/casos_por_estado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/casos_por_estado.xlsx
+++ b/casos_por_estado.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1118</v>
+        <v>1153</v>
       </c>
       <c r="D8" t="n">
-        <v>19.26</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D9" t="n">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="10">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D12" t="n">
-        <v>6.36</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D13" t="n">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D15" t="n">
-        <v>3.7</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D16" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D17" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D20" t="n">
-        <v>10.06</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>3.07</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D23" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D25" t="n">
-        <v>4.48</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="26">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D27" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="29">

--- a/casos_por_estado.xlsx
+++ b/casos_por_estado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
